--- a/Projects 2023/Meezan Bank Head Office/PO/001- Purchase order- for pipes & valves (fakhri).xlsx
+++ b/Projects 2023/Meezan Bank Head Office/PO/001- Purchase order- for pipes & valves (fakhri).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\Projects 2023\Meezan Bank Head Office\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D131E96-9039-455B-95F1-BA4910A5B2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12602640-6DF2-4013-BA2A-4EA7D8705A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,26 +19,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$71</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$23:$23</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>S No.</t>
   </si>
@@ -213,16 +204,22 @@
   <si>
     <t>1) Price is lock for above material.</t>
   </si>
+  <si>
+    <t>fakhri</t>
+  </si>
+  <si>
+    <t>saeed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +342,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -434,9 +438,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -464,17 +468,17 @@
     <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -500,10 +504,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -517,8 +521,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -550,30 +579,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -872,6 +885,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3CC6CE5-BFEF-DA76-CB0F-9DA514ED0152}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7724775" y="8829676"/>
+          <a:ext cx="8858250" cy="4581524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1138,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A10:H67"/>
+  <dimension ref="A10:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1153,13 +1210,14 @@
     <col min="5" max="5" width="11.5703125" style="11" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="9" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="11"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="8" width="13.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="10" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="1"/>
@@ -1178,24 +1236,24 @@
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
@@ -1206,28 +1264,28 @@
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
     </row>
     <row r="18" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:8" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="41"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
@@ -1445,7 +1503,7 @@
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
     </row>
-    <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>9</v>
       </c>
@@ -1468,7 +1526,7 @@
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
     </row>
-    <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="28"/>
       <c r="B34" s="29" t="s">
         <v>38</v>
@@ -1477,8 +1535,14 @@
       <c r="D34" s="31"/>
       <c r="E34" s="32"/>
       <c r="F34" s="31"/>
-    </row>
-    <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" s="53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>10</v>
       </c>
@@ -1498,10 +1562,19 @@
         <f t="shared" si="0"/>
         <v>88860</v>
       </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-    </row>
-    <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="26">
+        <f>E35*8%</f>
+        <v>118.48</v>
+      </c>
+      <c r="H35" s="52">
+        <f>E35-G35</f>
+        <v>1362.52</v>
+      </c>
+      <c r="I35" s="54">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>11</v>
       </c>
@@ -1521,10 +1594,17 @@
         <f t="shared" si="0"/>
         <v>194700</v>
       </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-    </row>
-    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="26">
+        <f t="shared" ref="G36:G40" si="1">E36*8%</f>
+        <v>155.76</v>
+      </c>
+      <c r="H36" s="52">
+        <f t="shared" ref="H36:H40" si="2">E36-G36</f>
+        <v>1791.24</v>
+      </c>
+      <c r="I36" s="54"/>
+    </row>
+    <row r="37" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>12</v>
       </c>
@@ -1544,10 +1624,17 @@
         <f t="shared" si="0"/>
         <v>721000</v>
       </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-    </row>
-    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="26">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="H37" s="52">
+        <f t="shared" si="2"/>
+        <v>2369</v>
+      </c>
+      <c r="I37" s="54"/>
+    </row>
+    <row r="38" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>13</v>
       </c>
@@ -1565,10 +1652,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-    </row>
-    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="26">
+        <f t="shared" si="1"/>
+        <v>279.12</v>
+      </c>
+      <c r="H38" s="52">
+        <f t="shared" si="2"/>
+        <v>3209.88</v>
+      </c>
+      <c r="I38" s="54">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>14</v>
       </c>
@@ -1586,10 +1682,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-    </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="26">
+        <f t="shared" si="1"/>
+        <v>381.68</v>
+      </c>
+      <c r="H39" s="52">
+        <f t="shared" si="2"/>
+        <v>4389.32</v>
+      </c>
+      <c r="I39" s="54">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>15</v>
       </c>
@@ -1609,10 +1714,19 @@
         <f t="shared" si="0"/>
         <v>1478000</v>
       </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-    </row>
-    <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G40" s="26">
+        <f t="shared" si="1"/>
+        <v>591.20000000000005</v>
+      </c>
+      <c r="H40" s="52">
+        <f t="shared" si="2"/>
+        <v>6798.8</v>
+      </c>
+      <c r="I40" s="54">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
       <c r="B41" s="29" t="s">
         <v>39</v>
@@ -1622,7 +1736,7 @@
       <c r="E41" s="32"/>
       <c r="F41" s="31"/>
     </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="4" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>16</v>
       </c>
@@ -1645,7 +1759,7 @@
       <c r="G42" s="26"/>
       <c r="H42" s="26"/>
     </row>
-    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
       <c r="B43" s="29" t="s">
         <v>40</v>
@@ -1655,7 +1769,7 @@
       <c r="E43" s="32"/>
       <c r="F43" s="31"/>
     </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>17</v>
       </c>
@@ -1678,7 +1792,7 @@
       <c r="G44" s="26"/>
       <c r="H44" s="26"/>
     </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>18</v>
       </c>
@@ -1701,14 +1815,14 @@
       <c r="G45" s="26"/>
       <c r="H45" s="26"/>
     </row>
-    <row r="46" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
-      <c r="C46" s="36" t="s">
+      <c r="C46" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
       <c r="F46" s="21">
         <f>SUM(F25:F45)</f>
         <v>19942990</v>
@@ -1716,14 +1830,14 @@
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
     </row>
-    <row r="47" spans="1:8" s="3" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
+    <row r="47" spans="1:9" s="3" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
       <c r="F47" s="22">
         <f>F46*8%</f>
         <v>1595439.2</v>
@@ -1731,14 +1845,14 @@
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
     </row>
-    <row r="48" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
+    <row r="48" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="23">
         <f>F46-F47</f>
         <v>18347550.800000001</v>
@@ -1758,22 +1872,22 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -1805,54 +1919,54 @@
       <c r="A59"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="46">
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="37">
         <v>5000000</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="46"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="37"/>
     </row>
     <row r="63" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
     </row>
     <row r="64" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C64" s="50" t="s">
+      <c r="C64" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
     </row>
     <row r="65" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="43"/>
-      <c r="C65" s="47" t="s">
+      <c r="B65" s="33"/>
+      <c r="C65" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="47"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
     </row>
     <row r="66" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="43"/>
-      <c r="C66" s="47" t="s">
+      <c r="B66" s="33"/>
+      <c r="C66" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="47"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
     </row>
     <row r="67" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
@@ -1861,6 +1975,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A52:F53"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A15:F15"/>
     <mergeCell ref="B60:E61"/>
     <mergeCell ref="F60:F61"/>
     <mergeCell ref="B63:E63"/>
@@ -1869,14 +1991,6 @@
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="C64:F64"/>
-    <mergeCell ref="A52:F53"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A15:F15"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
